--- a/Snap7/src/tags/mb-tags-s1-d2.xlsx
+++ b/Snap7/src/tags/mb-tags-s1-d2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30876686-7556-4FCC-AAAC-5C522B3CC4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1AAD68-146A-451A-A3DD-AFB341644A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21750" yWindow="2250" windowWidth="14685" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MB-Tags" sheetId="25" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="27">
   <si>
     <t>INDEX</t>
   </si>
@@ -637,7 +637,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +724,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -743,6 +743,18 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -754,10 +766,18 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -769,6 +789,18 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -780,10 +812,18 @@
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>

--- a/Snap7/src/tags/mb-tags-s1-d2.xlsx
+++ b/Snap7/src/tags/mb-tags-s1-d2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1AAD68-146A-451A-A3DD-AFB341644A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A430D34-5F9B-48DA-827D-4E676555264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21750" yWindow="2250" windowWidth="14685" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MB-Tags" sheetId="25" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="27">
   <si>
     <t>INDEX</t>
   </si>
@@ -637,7 +637,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,16 +696,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>25</v>
@@ -724,13 +724,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G5" s="4"/>
       <c r="I5" s="1"/>
@@ -747,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
@@ -766,18 +766,10 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -789,18 +781,6 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -812,18 +792,10 @@
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>

--- a/Snap7/src/tags/mb-tags-s1-d2.xlsx
+++ b/Snap7/src/tags/mb-tags-s1-d2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbystrzycki\Desktop\Snap7\src\tags\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A430D34-5F9B-48DA-827D-4E676555264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF7E93E-E2E4-43EF-9FE5-7FB838C625DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="3735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MB-Tags" sheetId="25" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="26">
   <si>
     <t>INDEX</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>forFloatInverted</t>
-  </si>
-  <si>
-    <t>"=(Numer rejestru * 16)+ Numer bitu"</t>
   </si>
   <si>
     <t>*</t>
@@ -213,7 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -244,6 +241,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,7 +637,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,21 +695,19 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
+      <c r="D4" s="3">
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -720,14 +718,14 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
+      <c r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
@@ -743,18 +741,8 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -938,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -14631,16 +14619,16 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1003" xr:uid="{FA47B404-7182-46E3-A3EE-B56540694C95}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D1003 D4:D5" xr:uid="{FA47B404-7182-46E3-A3EE-B56540694C95}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1003" xr:uid="{6939DBA4-73D8-4050-B684-C52B4CE649CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C1003 C4:C5" xr:uid="{6939DBA4-73D8-4050-B684-C52B4CE649CA}">
       <formula1>type</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1003" xr:uid="{25563E52-196E-44FB-BF93-987D1FF9D93B}">
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F1003 F4:F5" xr:uid="{25563E52-196E-44FB-BF93-987D1FF9D93B}">
       <formula1>INDIRECT(C4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1003" xr:uid="{0C8E52B6-793E-4402-BD28-683A589173FE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1003 E4:E5" xr:uid="{0C8E52B6-793E-4402-BD28-683A589173FE}">
       <formula1>INDIRECT(SUBSTITUTE(C4&amp;F4," ",""))</formula1>
     </dataValidation>
   </dataValidations>
